--- a/OpenCart-BugReport.xlsx
+++ b/OpenCart-BugReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\Manual_Testing_Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -943,7 +943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>

--- a/OpenCart-BugReport.xlsx
+++ b/OpenCart-BugReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="102">
   <si>
     <t>Bug ID</t>
   </si>
@@ -243,18 +243,6 @@
     <t>User is not getting logged out</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open Application URL in any browser
-2. Click on 'My Account' dropmenu
-3. Select 'Login' option
-4. Enter password into the 'Password' field on the 'Login' page
-5. Click on 'Login' button
-6. Inspect the 'Password' text field 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password should not be visible in the Page Source code </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Login to the Application with valid credentials
 2. Don't perform any action for next 30 minutes
 3. Try to perform any action after the above 30 minutes like Search a product etc.
@@ -349,12 +337,6 @@
     <t>Password' and 'Password Confirm' fields in 'Register Account' page are accepting simple passwords</t>
   </si>
   <si>
-    <t>Password is getting displayed in the Page Source code</t>
-  </si>
-  <si>
-    <t>Password is getting displayed in the Page Source code.</t>
-  </si>
-  <si>
     <t>Unable to get link for resseting the password on email as the application email system in not working.</t>
   </si>
   <si>
@@ -410,9 +392,6 @@
   </si>
   <si>
     <t>User should be taken to 'Privacy Policy' page and proper text/information should be displayed on this page</t>
-  </si>
-  <si>
-    <t>OPENCART-BUG-19</t>
   </si>
   <si>
     <t>By Clicking 'Privacy Policy' footer link user taken to 'Privacy Policy' page but Proper text/information  is not displaying in page.</t>
@@ -879,11 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -928,10 +907,10 @@
     </row>
     <row r="2" spans="1:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>34</v>
@@ -979,7 +958,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>42</v>
@@ -994,7 +973,7 @@
         <v>45</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H4" s="3"/>
     </row>
@@ -1003,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>46</v>
@@ -1027,7 +1006,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>49</v>
@@ -1063,7 +1042,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>38</v>
@@ -1094,12 +1073,12 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>59</v>
@@ -1108,121 +1087,121 @@
         <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
+        <v>86</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4" t="s">
         <v>68</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="F13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>70</v>
@@ -1234,88 +1213,88 @@
         <v>45</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>99</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>100</v>
@@ -1324,65 +1303,41 @@
         <v>101</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="15" t="s">
+      <c r="B19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="G19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="14" t="s">
         <v>76</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="14" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/OpenCart-BugReport.xlsx
+++ b/OpenCart-BugReport.xlsx
@@ -340,14 +340,6 @@
     <t>Unable to get link for resseting the password on email as the application email system in not working.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the Application URL and navigate to Login Page
-2. An existing Account is required
-3.Enter the email address of an existing account for which user forgot the password 
-3. Click on 'Continue' button
-4. Check the registered email address for which the password got reset.
-</t>
-  </si>
-  <si>
     <t>User should get  link for resseting the password on email</t>
   </si>
   <si>
@@ -405,6 +397,15 @@
   </si>
   <si>
     <t>User should be taken to 'Terms and Conditions' page and proper text/information should be displayed on this page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the Application URL and navigate to Login Page
+2. An existing Account is required
+3.Enter the email address of an existing account for which user forgot the password 
+3. Click on 'Forget Password' button
+4.Click on 'Continue' button.
+5. Check the registered email address for which the password got reset.
+</t>
   </si>
 </sst>
 </file>
@@ -861,8 +862,8 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1066,7 +1067,7 @@
         <v>57</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="G8" s="15" t="s">
         <v>38</v>
@@ -1105,13 +1106,13 @@
         <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>77</v>
@@ -1201,7 +1202,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>70</v>
@@ -1222,16 +1223,16 @@
         <v>25</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>90</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="F15" s="15" t="s">
         <v>45</v>
@@ -1246,16 +1247,16 @@
         <v>27</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>95</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F16" s="15" t="s">
         <v>45</v>
@@ -1270,16 +1271,16 @@
         <v>29</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="E17" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F17" s="15" t="s">
         <v>45</v>
@@ -1294,16 +1295,16 @@
         <v>31</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>101</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F18" s="15" t="s">
         <v>45</v>
